--- a/medicine/Mort/Le_Sommeil_d'Arthur_à_Avalon/Le_Sommeil_d'Arthur_à_Avalon.xlsx
+++ b/medicine/Mort/Le_Sommeil_d'Arthur_à_Avalon/Le_Sommeil_d'Arthur_à_Avalon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Le_Sommeil_d%27Arthur_%C3%A0_Avalon</t>
+          <t>Le_Sommeil_d'Arthur_à_Avalon</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Sommeil d'Arthur à Avalon, ou simplement Arthur à Avalon – en anglais The Sleep of King Arthur in Avalon –, est un tableau réalisé par le peintre britannique Edward Burne-Jones à compter de 1881. Cette huile sur toile de grand format est une commande de George Howard qu'il finit par annuler mais sur laquelle l'artiste continue à travailler jusqu'à sa mort en 1898, quand il laisse inachevé ce qui est désormais considéré comme son chef-d'œuvre. Illustration de la légende arthurienne, elle représente la dormition d'Arthur à Avalon après sa défaite par Mordred. Le roi y figure gisant au centre d'un édifice sculpté entouré de fleurs, déploré par dix-sept figures féminines, dont certaines lui jouent de la musique. L'œuvre est conservée depuis 1963 au musée d'Art de Ponce, à Ponce, dans le territoire américain de Porto Rico.
 </t>
